--- a/config_1.12/activity_042_hlfl_config.xlsx
+++ b/config_1.12/activity_042_hlfl_config.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JYHD\HuanLe_doc\config_1.12\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_1.12\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28245" windowHeight="12540"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28245" windowHeight="12540" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="base|基础配置" sheetId="6" r:id="rId1"/>
@@ -801,7 +801,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
@@ -954,7 +954,7 @@
   <dimension ref="A1:R11"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D20" sqref="A1:XFD1048576"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1041,7 +1041,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="20">
-        <v>1000175</v>
+        <v>1000176</v>
       </c>
       <c r="C2" s="11" t="s">
         <v>49</v>
@@ -1073,7 +1073,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="20">
-        <v>1000176</v>
+        <v>1000177</v>
       </c>
       <c r="C3" s="11" t="s">
         <v>50</v>
@@ -1107,7 +1107,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="20">
-        <v>1000177</v>
+        <v>1000178</v>
       </c>
       <c r="C4" s="11" t="s">
         <v>51</v>
@@ -1139,7 +1139,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="20">
-        <v>1000178</v>
+        <v>1000179</v>
       </c>
       <c r="C5" s="11" t="s">
         <v>49</v>
@@ -1171,7 +1171,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="20">
-        <v>1000179</v>
+        <v>1000180</v>
       </c>
       <c r="C6" s="11" t="s">
         <v>52</v>
@@ -1203,7 +1203,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="20">
-        <v>1000180</v>
+        <v>1000181</v>
       </c>
       <c r="C7" s="11" t="s">
         <v>33</v>
@@ -1236,7 +1236,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="20">
-        <v>1000181</v>
+        <v>1000182</v>
       </c>
       <c r="C8" s="11" t="s">
         <v>49</v>
@@ -1262,7 +1262,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="20">
-        <v>1000182</v>
+        <v>1000183</v>
       </c>
       <c r="C9" s="11" t="s">
         <v>49</v>
@@ -1299,8 +1299,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1387,7 +1387,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="20">
-        <v>1000183</v>
+        <v>1000184</v>
       </c>
       <c r="C2" s="11" t="s">
         <v>59</v>
@@ -1419,7 +1419,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="20">
-        <v>1000184</v>
+        <v>1000185</v>
       </c>
       <c r="C3" s="11" t="s">
         <v>60</v>
@@ -1453,7 +1453,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="20">
-        <v>1000185</v>
+        <v>1000186</v>
       </c>
       <c r="C4" s="11" t="s">
         <v>61</v>
@@ -1485,7 +1485,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="20">
-        <v>1000186</v>
+        <v>1000187</v>
       </c>
       <c r="C5" s="11" t="s">
         <v>62</v>
@@ -1517,7 +1517,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="20">
-        <v>1000187</v>
+        <v>1000188</v>
       </c>
       <c r="C6" s="11" t="s">
         <v>63</v>
@@ -1549,7 +1549,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="20">
-        <v>1000188</v>
+        <v>1000189</v>
       </c>
       <c r="C7" s="11" t="s">
         <v>33</v>
